--- a/bioSample/bioSample_2574.xlsx
+++ b/bioSample/bioSample_2574.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_2574.xlsx
+++ b/bioSample/bioSample_2574.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="62">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t xml:space="preserve">CNAG_04352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G418</t>
   </si>
   <si>
     <t xml:space="preserve">TDY2154</t>
@@ -223,6 +220,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -307,7 +305,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -315,9 +313,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.07"/>
@@ -446,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -463,10 +461,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>23</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>15</v>
@@ -495,10 +493,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>15</v>
@@ -527,10 +525,10 @@
         <v>12</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>15</v>
@@ -559,10 +557,10 @@
         <v>12</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>15</v>
@@ -591,10 +589,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>31</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>15</v>
@@ -623,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>33</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>15</v>
@@ -655,10 +653,10 @@
         <v>12</v>
       </c>
       <c r="E11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>35</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>15</v>
@@ -687,10 +685,10 @@
         <v>12</v>
       </c>
       <c r="E12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>15</v>
@@ -719,10 +717,10 @@
         <v>12</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>15</v>
@@ -751,10 +749,10 @@
         <v>12</v>
       </c>
       <c r="E14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>15</v>
@@ -783,10 +781,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>15</v>
@@ -815,10 +813,10 @@
         <v>12</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>15</v>
@@ -847,10 +845,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>15</v>
@@ -879,10 +877,10 @@
         <v>12</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>15</v>
@@ -911,10 +909,10 @@
         <v>12</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>15</v>
@@ -943,10 +941,10 @@
         <v>12</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>15</v>
@@ -975,10 +973,10 @@
         <v>12</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>15</v>
@@ -1007,10 +1005,10 @@
         <v>12</v>
       </c>
       <c r="E22" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>15</v>
@@ -1039,10 +1037,10 @@
         <v>12</v>
       </c>
       <c r="E23" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>59</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>15</v>
@@ -1071,10 +1069,10 @@
         <v>12</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>15</v>
@@ -1091,7 +1089,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>11</v>
@@ -1120,7 +1118,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>11</v>
@@ -1152,7 +1150,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>11</v>
@@ -1179,12 +1177,12 @@
         <v>4</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>11</v>
@@ -1196,10 +1194,10 @@
         <v>12</v>
       </c>
       <c r="E28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>23</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>15</v>
@@ -1216,7 +1214,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>11</v>
@@ -1228,10 +1226,10 @@
         <v>12</v>
       </c>
       <c r="E29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>15</v>
@@ -1248,7 +1246,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>11</v>
@@ -1260,10 +1258,10 @@
         <v>12</v>
       </c>
       <c r="E30" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>15</v>
@@ -1280,7 +1278,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>11</v>
@@ -1292,10 +1290,10 @@
         <v>12</v>
       </c>
       <c r="E31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>15</v>
@@ -1312,7 +1310,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>11</v>
@@ -1324,10 +1322,10 @@
         <v>12</v>
       </c>
       <c r="E32" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>31</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>15</v>
@@ -1344,7 +1342,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>11</v>
@@ -1356,10 +1354,10 @@
         <v>12</v>
       </c>
       <c r="E33" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>33</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>15</v>
@@ -1376,7 +1374,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>11</v>
@@ -1388,10 +1386,10 @@
         <v>12</v>
       </c>
       <c r="E34" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>35</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>15</v>
@@ -1408,7 +1406,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>11</v>
@@ -1420,10 +1418,10 @@
         <v>12</v>
       </c>
       <c r="E35" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>15</v>
@@ -1440,7 +1438,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>11</v>
@@ -1452,10 +1450,10 @@
         <v>12</v>
       </c>
       <c r="E36" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>15</v>
@@ -1472,7 +1470,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>11</v>
@@ -1484,10 +1482,10 @@
         <v>12</v>
       </c>
       <c r="E37" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>15</v>
@@ -1504,7 +1502,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>11</v>
@@ -1516,10 +1514,10 @@
         <v>12</v>
       </c>
       <c r="E38" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>15</v>
@@ -1536,7 +1534,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>11</v>
@@ -1548,10 +1546,10 @@
         <v>12</v>
       </c>
       <c r="E39" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>15</v>
@@ -1568,7 +1566,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>11</v>
@@ -1580,10 +1578,10 @@
         <v>12</v>
       </c>
       <c r="E40" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>15</v>
@@ -1600,7 +1598,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>11</v>
@@ -1612,10 +1610,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>15</v>
@@ -1632,7 +1630,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>11</v>
@@ -1644,10 +1642,10 @@
         <v>12</v>
       </c>
       <c r="E42" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>15</v>
@@ -1664,7 +1662,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>11</v>
@@ -1676,10 +1674,10 @@
         <v>12</v>
       </c>
       <c r="E43" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>15</v>
@@ -1696,7 +1694,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>11</v>
@@ -1708,10 +1706,10 @@
         <v>12</v>
       </c>
       <c r="E44" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>15</v>
@@ -1728,7 +1726,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>11</v>
@@ -1740,10 +1738,10 @@
         <v>12</v>
       </c>
       <c r="E45" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>15</v>
@@ -1760,7 +1758,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>11</v>
@@ -1772,10 +1770,10 @@
         <v>12</v>
       </c>
       <c r="E46" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>59</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>15</v>
@@ -1792,7 +1790,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>11</v>
@@ -1804,10 +1802,10 @@
         <v>12</v>
       </c>
       <c r="E47" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>15</v>
